--- a/Task3_Definition_Modeling_with_Metaphorically_Used_Words/annotation/data/flan-t5-base_annset_gruk.xlsx
+++ b/Task3_Definition_Modeling_with_Metaphorically_Used_Words/annotation/data/flan-t5-base_annset_gruk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gruks\OneDrive\Documents\GitHub\metaphors_nlu_project\Task3_Definition_Modeling_with_Metaphorically_Used_Words\annotation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F9A25A3-7FC4-4B93-89BB-F36786C75CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AD2E247B-69BC-4F0B-8525-A0C9CE76F637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{E2118E63-1909-4A35-9A2F-62FE191179EB}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{E2118E63-1909-4A35-9A2F-62FE191179EB}"/>
   </bookViews>
   <sheets>
     <sheet name="flan-t5-base_annset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="345">
   <si>
     <t>word</t>
   </si>
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593CAC59-8B80-4BDF-A2E1-0B04AD9D805D}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="30" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2834,7 +2834,7 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>343</v>
@@ -2850,9 +2850,6 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
       <c r="C47" t="s">
         <v>135</v>
       </c>
@@ -2976,6 +2973,9 @@
       <c r="C53" t="s">
         <v>29</v>
       </c>
+      <c r="D53" t="s">
+        <v>342</v>
+      </c>
       <c r="E53" t="s">
         <v>30</v>
       </c>
@@ -2993,6 +2993,9 @@
       <c r="C54" t="s">
         <v>141</v>
       </c>
+      <c r="D54" t="s">
+        <v>343</v>
+      </c>
       <c r="E54" t="s">
         <v>71</v>
       </c>
@@ -3010,6 +3013,9 @@
       <c r="C55" t="s">
         <v>143</v>
       </c>
+      <c r="D55" t="s">
+        <v>343</v>
+      </c>
       <c r="E55" t="s">
         <v>144</v>
       </c>
@@ -3027,6 +3033,9 @@
       <c r="C56" t="s">
         <v>146</v>
       </c>
+      <c r="D56" t="s">
+        <v>342</v>
+      </c>
       <c r="E56" t="s">
         <v>75</v>
       </c>
@@ -3044,6 +3053,9 @@
       <c r="C57" t="s">
         <v>148</v>
       </c>
+      <c r="D57" t="s">
+        <v>343</v>
+      </c>
       <c r="E57" t="s">
         <v>149</v>
       </c>
@@ -3061,6 +3073,9 @@
       <c r="C58" t="s">
         <v>151</v>
       </c>
+      <c r="D58" t="s">
+        <v>342</v>
+      </c>
       <c r="E58" t="s">
         <v>152</v>
       </c>
@@ -3078,6 +3093,9 @@
       <c r="C59" t="s">
         <v>153</v>
       </c>
+      <c r="D59" t="s">
+        <v>343</v>
+      </c>
       <c r="E59" t="s">
         <v>154</v>
       </c>
@@ -3095,6 +3113,9 @@
       <c r="C60" t="s">
         <v>157</v>
       </c>
+      <c r="D60" t="s">
+        <v>344</v>
+      </c>
       <c r="E60" t="s">
         <v>158</v>
       </c>
@@ -3112,6 +3133,9 @@
       <c r="C61" t="s">
         <v>160</v>
       </c>
+      <c r="D61" t="s">
+        <v>342</v>
+      </c>
       <c r="E61" t="s">
         <v>161</v>
       </c>
@@ -3129,6 +3153,9 @@
       <c r="C62" t="s">
         <v>163</v>
       </c>
+      <c r="D62" t="s">
+        <v>342</v>
+      </c>
       <c r="E62" t="s">
         <v>16</v>
       </c>
@@ -3146,6 +3173,9 @@
       <c r="C63" t="s">
         <v>165</v>
       </c>
+      <c r="D63" t="s">
+        <v>342</v>
+      </c>
       <c r="E63" t="s">
         <v>56</v>
       </c>
@@ -3163,6 +3193,9 @@
       <c r="C64" t="s">
         <v>48</v>
       </c>
+      <c r="D64" t="s">
+        <v>343</v>
+      </c>
       <c r="E64" t="s">
         <v>154</v>
       </c>
@@ -3180,6 +3213,9 @@
       <c r="C65" t="s">
         <v>167</v>
       </c>
+      <c r="D65" t="s">
+        <v>342</v>
+      </c>
       <c r="E65" t="s">
         <v>118</v>
       </c>
@@ -3197,6 +3233,9 @@
       <c r="C66" t="s">
         <v>168</v>
       </c>
+      <c r="D66" t="s">
+        <v>342</v>
+      </c>
       <c r="E66" t="s">
         <v>16</v>
       </c>
@@ -3214,6 +3253,9 @@
       <c r="C67" t="s">
         <v>169</v>
       </c>
+      <c r="D67" t="s">
+        <v>343</v>
+      </c>
       <c r="E67" t="s">
         <v>162</v>
       </c>
@@ -3231,6 +3273,9 @@
       <c r="C68" t="s">
         <v>171</v>
       </c>
+      <c r="D68" t="s">
+        <v>342</v>
+      </c>
       <c r="E68" t="s">
         <v>172</v>
       </c>
@@ -3248,6 +3293,9 @@
       <c r="C69" t="s">
         <v>174</v>
       </c>
+      <c r="D69" t="s">
+        <v>343</v>
+      </c>
       <c r="E69" t="s">
         <v>175</v>
       </c>
@@ -3265,6 +3313,9 @@
       <c r="C70" t="s">
         <v>176</v>
       </c>
+      <c r="D70" t="s">
+        <v>344</v>
+      </c>
       <c r="E70" t="s">
         <v>66</v>
       </c>
@@ -3282,6 +3333,9 @@
       <c r="C71" t="s">
         <v>177</v>
       </c>
+      <c r="D71" t="s">
+        <v>344</v>
+      </c>
       <c r="E71" t="s">
         <v>66</v>
       </c>
@@ -3299,6 +3353,9 @@
       <c r="C72" t="s">
         <v>51</v>
       </c>
+      <c r="D72" t="s">
+        <v>342</v>
+      </c>
       <c r="E72" t="s">
         <v>53</v>
       </c>
@@ -3316,6 +3373,9 @@
       <c r="C73" t="s">
         <v>178</v>
       </c>
+      <c r="D73" t="s">
+        <v>343</v>
+      </c>
       <c r="E73" t="s">
         <v>179</v>
       </c>
@@ -3333,6 +3393,9 @@
       <c r="C74" t="s">
         <v>180</v>
       </c>
+      <c r="D74" t="s">
+        <v>344</v>
+      </c>
       <c r="E74" t="s">
         <v>19</v>
       </c>
@@ -3350,6 +3413,9 @@
       <c r="C75" t="s">
         <v>181</v>
       </c>
+      <c r="D75" t="s">
+        <v>343</v>
+      </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
@@ -3367,6 +3433,9 @@
       <c r="C76" t="s">
         <v>182</v>
       </c>
+      <c r="D76" t="s">
+        <v>342</v>
+      </c>
       <c r="E76" t="s">
         <v>66</v>
       </c>
@@ -3384,6 +3453,9 @@
       <c r="C77" t="s">
         <v>183</v>
       </c>
+      <c r="D77" t="s">
+        <v>344</v>
+      </c>
       <c r="E77" t="s">
         <v>66</v>
       </c>
@@ -3401,6 +3473,9 @@
       <c r="C78" t="s">
         <v>185</v>
       </c>
+      <c r="D78" t="s">
+        <v>343</v>
+      </c>
       <c r="E78" t="s">
         <v>186</v>
       </c>
@@ -3418,6 +3493,9 @@
       <c r="C79" t="s">
         <v>189</v>
       </c>
+      <c r="D79" t="s">
+        <v>344</v>
+      </c>
       <c r="E79" t="s">
         <v>190</v>
       </c>
@@ -3435,6 +3513,9 @@
       <c r="C80" t="s">
         <v>191</v>
       </c>
+      <c r="D80" t="s">
+        <v>344</v>
+      </c>
       <c r="E80" t="s">
         <v>187</v>
       </c>
@@ -3452,6 +3533,9 @@
       <c r="C81" t="s">
         <v>192</v>
       </c>
+      <c r="D81" t="s">
+        <v>342</v>
+      </c>
       <c r="E81" t="s">
         <v>75</v>
       </c>
@@ -3469,6 +3553,9 @@
       <c r="C82" t="s">
         <v>193</v>
       </c>
+      <c r="D82" t="s">
+        <v>343</v>
+      </c>
       <c r="E82" t="s">
         <v>194</v>
       </c>
@@ -3486,6 +3573,9 @@
       <c r="C83" t="s">
         <v>195</v>
       </c>
+      <c r="D83" t="s">
+        <v>344</v>
+      </c>
       <c r="E83" t="s">
         <v>19</v>
       </c>
@@ -3503,6 +3593,9 @@
       <c r="C84" t="s">
         <v>197</v>
       </c>
+      <c r="D84" t="s">
+        <v>342</v>
+      </c>
       <c r="E84" t="s">
         <v>198</v>
       </c>
@@ -3520,6 +3613,9 @@
       <c r="C85" t="s">
         <v>200</v>
       </c>
+      <c r="D85" t="s">
+        <v>344</v>
+      </c>
       <c r="E85" t="s">
         <v>19</v>
       </c>
@@ -3537,6 +3633,9 @@
       <c r="C86" t="s">
         <v>202</v>
       </c>
+      <c r="D86" t="s">
+        <v>344</v>
+      </c>
       <c r="E86" t="s">
         <v>203</v>
       </c>
@@ -3554,6 +3653,9 @@
       <c r="C87" t="s">
         <v>204</v>
       </c>
+      <c r="D87" t="s">
+        <v>342</v>
+      </c>
       <c r="E87" t="s">
         <v>43</v>
       </c>
@@ -3571,6 +3673,9 @@
       <c r="C88" t="s">
         <v>205</v>
       </c>
+      <c r="D88" t="s">
+        <v>342</v>
+      </c>
       <c r="E88" t="s">
         <v>74</v>
       </c>
@@ -3588,6 +3693,9 @@
       <c r="C89" t="s">
         <v>206</v>
       </c>
+      <c r="D89" t="s">
+        <v>342</v>
+      </c>
       <c r="E89" t="s">
         <v>100</v>
       </c>
@@ -3605,6 +3713,9 @@
       <c r="C90" t="s">
         <v>208</v>
       </c>
+      <c r="D90" t="s">
+        <v>343</v>
+      </c>
       <c r="E90" t="s">
         <v>209</v>
       </c>
@@ -3622,6 +3733,9 @@
       <c r="C91" t="s">
         <v>211</v>
       </c>
+      <c r="D91" t="s">
+        <v>342</v>
+      </c>
       <c r="E91" t="s">
         <v>61</v>
       </c>
@@ -3639,6 +3753,9 @@
       <c r="C92" t="s">
         <v>214</v>
       </c>
+      <c r="D92" t="s">
+        <v>343</v>
+      </c>
       <c r="E92" t="s">
         <v>215</v>
       </c>
@@ -3656,6 +3773,9 @@
       <c r="C93" t="s">
         <v>217</v>
       </c>
+      <c r="D93" t="s">
+        <v>343</v>
+      </c>
       <c r="E93" t="s">
         <v>117</v>
       </c>
@@ -3673,6 +3793,9 @@
       <c r="C94" t="s">
         <v>218</v>
       </c>
+      <c r="D94" t="s">
+        <v>342</v>
+      </c>
       <c r="E94" t="s">
         <v>187</v>
       </c>
@@ -3690,6 +3813,9 @@
       <c r="C95" t="s">
         <v>219</v>
       </c>
+      <c r="D95" t="s">
+        <v>342</v>
+      </c>
       <c r="E95" t="s">
         <v>19</v>
       </c>
@@ -3707,6 +3833,9 @@
       <c r="C96" t="s">
         <v>220</v>
       </c>
+      <c r="D96" t="s">
+        <v>343</v>
+      </c>
       <c r="E96" t="s">
         <v>221</v>
       </c>
@@ -3724,6 +3853,9 @@
       <c r="C97" t="s">
         <v>222</v>
       </c>
+      <c r="D97" t="s">
+        <v>343</v>
+      </c>
       <c r="E97" t="s">
         <v>158</v>
       </c>
@@ -3741,6 +3873,9 @@
       <c r="C98" t="s">
         <v>223</v>
       </c>
+      <c r="D98" t="s">
+        <v>342</v>
+      </c>
       <c r="E98" t="s">
         <v>16</v>
       </c>
@@ -3758,6 +3893,9 @@
       <c r="C99" t="s">
         <v>224</v>
       </c>
+      <c r="D99" t="s">
+        <v>343</v>
+      </c>
       <c r="E99" t="s">
         <v>225</v>
       </c>
@@ -3775,6 +3913,9 @@
       <c r="C100" t="s">
         <v>227</v>
       </c>
+      <c r="D100" t="s">
+        <v>344</v>
+      </c>
       <c r="E100" t="s">
         <v>228</v>
       </c>
@@ -3792,6 +3933,9 @@
       <c r="C101" t="s">
         <v>229</v>
       </c>
+      <c r="D101" t="s">
+        <v>343</v>
+      </c>
       <c r="E101" t="s">
         <v>117</v>
       </c>
@@ -3809,6 +3953,9 @@
       <c r="C102" t="s">
         <v>10</v>
       </c>
+      <c r="D102" t="s">
+        <v>342</v>
+      </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
@@ -3826,6 +3973,9 @@
       <c r="C103" t="s">
         <v>231</v>
       </c>
+      <c r="D103" t="s">
+        <v>343</v>
+      </c>
       <c r="E103" t="s">
         <v>232</v>
       </c>
@@ -3843,6 +3993,9 @@
       <c r="C104" t="s">
         <v>235</v>
       </c>
+      <c r="D104" t="s">
+        <v>342</v>
+      </c>
       <c r="E104" t="s">
         <v>236</v>
       </c>
@@ -3860,6 +4013,9 @@
       <c r="C105" t="s">
         <v>238</v>
       </c>
+      <c r="D105" t="s">
+        <v>343</v>
+      </c>
       <c r="E105" t="s">
         <v>236</v>
       </c>
@@ -3877,6 +4033,9 @@
       <c r="C106" t="s">
         <v>189</v>
       </c>
+      <c r="D106" t="s">
+        <v>344</v>
+      </c>
       <c r="E106" t="s">
         <v>190</v>
       </c>
@@ -3894,6 +4053,9 @@
       <c r="C107" t="s">
         <v>240</v>
       </c>
+      <c r="D107" t="s">
+        <v>342</v>
+      </c>
       <c r="E107" t="s">
         <v>75</v>
       </c>
@@ -3911,6 +4073,9 @@
       <c r="C108" t="s">
         <v>48</v>
       </c>
+      <c r="D108" t="s">
+        <v>342</v>
+      </c>
       <c r="E108" t="s">
         <v>155</v>
       </c>
@@ -3928,6 +4093,9 @@
       <c r="C109" t="s">
         <v>241</v>
       </c>
+      <c r="D109" t="s">
+        <v>343</v>
+      </c>
       <c r="E109" t="s">
         <v>31</v>
       </c>
@@ -3945,6 +4113,9 @@
       <c r="C110" t="s">
         <v>242</v>
       </c>
+      <c r="D110" t="s">
+        <v>344</v>
+      </c>
       <c r="E110" t="s">
         <v>150</v>
       </c>
@@ -3962,6 +4133,9 @@
       <c r="C111" t="s">
         <v>178</v>
       </c>
+      <c r="D111" t="s">
+        <v>343</v>
+      </c>
       <c r="E111" t="s">
         <v>179</v>
       </c>
@@ -3979,6 +4153,9 @@
       <c r="C112" t="s">
         <v>243</v>
       </c>
+      <c r="D112" t="s">
+        <v>343</v>
+      </c>
       <c r="E112" t="s">
         <v>75</v>
       </c>
@@ -3996,6 +4173,9 @@
       <c r="C113" t="s">
         <v>245</v>
       </c>
+      <c r="D113" t="s">
+        <v>342</v>
+      </c>
       <c r="E113" t="s">
         <v>246</v>
       </c>
@@ -4013,6 +4193,9 @@
       <c r="C114" t="s">
         <v>248</v>
       </c>
+      <c r="D114" t="s">
+        <v>343</v>
+      </c>
       <c r="E114" t="s">
         <v>39</v>
       </c>
@@ -4030,6 +4213,9 @@
       <c r="C115" t="s">
         <v>249</v>
       </c>
+      <c r="D115" t="s">
+        <v>342</v>
+      </c>
       <c r="E115" t="s">
         <v>250</v>
       </c>
@@ -4047,6 +4233,9 @@
       <c r="C116" t="s">
         <v>252</v>
       </c>
+      <c r="D116" t="s">
+        <v>344</v>
+      </c>
       <c r="E116" t="s">
         <v>47</v>
       </c>
@@ -4064,6 +4253,9 @@
       <c r="C117" t="s">
         <v>253</v>
       </c>
+      <c r="D117" t="s">
+        <v>343</v>
+      </c>
       <c r="E117" t="s">
         <v>75</v>
       </c>
@@ -4081,6 +4273,9 @@
       <c r="C118" t="s">
         <v>255</v>
       </c>
+      <c r="D118" t="s">
+        <v>342</v>
+      </c>
       <c r="E118" t="s">
         <v>256</v>
       </c>
@@ -4098,6 +4293,9 @@
       <c r="C119" t="s">
         <v>258</v>
       </c>
+      <c r="D119" t="s">
+        <v>342</v>
+      </c>
       <c r="E119" t="s">
         <v>56</v>
       </c>
@@ -4115,6 +4313,9 @@
       <c r="C120" t="s">
         <v>260</v>
       </c>
+      <c r="D120" t="s">
+        <v>342</v>
+      </c>
       <c r="E120" t="s">
         <v>47</v>
       </c>
@@ -4132,6 +4333,9 @@
       <c r="C121" t="s">
         <v>261</v>
       </c>
+      <c r="D121" t="s">
+        <v>343</v>
+      </c>
       <c r="E121" t="s">
         <v>262</v>
       </c>
@@ -4149,6 +4353,9 @@
       <c r="C122" t="s">
         <v>264</v>
       </c>
+      <c r="D122" t="s">
+        <v>342</v>
+      </c>
       <c r="E122" t="s">
         <v>56</v>
       </c>
@@ -4166,6 +4373,9 @@
       <c r="C123" t="s">
         <v>249</v>
       </c>
+      <c r="D123" t="s">
+        <v>342</v>
+      </c>
       <c r="E123" t="s">
         <v>250</v>
       </c>
@@ -4183,6 +4393,9 @@
       <c r="C124" t="s">
         <v>265</v>
       </c>
+      <c r="D124" t="s">
+        <v>342</v>
+      </c>
       <c r="E124" t="s">
         <v>125</v>
       </c>
@@ -4200,6 +4413,9 @@
       <c r="C125" t="s">
         <v>51</v>
       </c>
+      <c r="D125" t="s">
+        <v>342</v>
+      </c>
       <c r="E125" t="s">
         <v>53</v>
       </c>
@@ -4217,6 +4433,9 @@
       <c r="C126" t="s">
         <v>268</v>
       </c>
+      <c r="D126" t="s">
+        <v>343</v>
+      </c>
       <c r="E126" t="s">
         <v>216</v>
       </c>
@@ -4234,6 +4453,9 @@
       <c r="C127" t="s">
         <v>270</v>
       </c>
+      <c r="D127" t="s">
+        <v>343</v>
+      </c>
       <c r="E127" t="s">
         <v>271</v>
       </c>
@@ -4251,6 +4473,9 @@
       <c r="C128" t="s">
         <v>272</v>
       </c>
+      <c r="D128" t="s">
+        <v>343</v>
+      </c>
       <c r="E128" t="s">
         <v>12</v>
       </c>
@@ -4268,6 +4493,9 @@
       <c r="C129" t="s">
         <v>51</v>
       </c>
+      <c r="D129" t="s">
+        <v>343</v>
+      </c>
       <c r="E129" t="s">
         <v>52</v>
       </c>
@@ -4285,6 +4513,9 @@
       <c r="C130" t="s">
         <v>48</v>
       </c>
+      <c r="D130" t="s">
+        <v>342</v>
+      </c>
       <c r="E130" t="s">
         <v>16</v>
       </c>
@@ -4302,6 +4533,9 @@
       <c r="C131" t="s">
         <v>48</v>
       </c>
+      <c r="D131" t="s">
+        <v>343</v>
+      </c>
       <c r="E131" t="s">
         <v>49</v>
       </c>
@@ -4319,6 +4553,9 @@
       <c r="C132" t="s">
         <v>273</v>
       </c>
+      <c r="D132" t="s">
+        <v>344</v>
+      </c>
       <c r="E132" t="s">
         <v>246</v>
       </c>
@@ -4335,6 +4572,9 @@
       </c>
       <c r="C133" t="s">
         <v>274</v>
+      </c>
+      <c r="D133" t="s">
+        <v>343</v>
       </c>
       <c r="E133" t="s">
         <v>31</v>

--- a/Task3_Definition_Modeling_with_Metaphorically_Used_Words/annotation/data/flan-t5-base_annset_gruk.xlsx
+++ b/Task3_Definition_Modeling_with_Metaphorically_Used_Words/annotation/data/flan-t5-base_annset_gruk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gruks\OneDrive\Documents\GitHub\metaphors_nlu_project\Task3_Definition_Modeling_with_Metaphorically_Used_Words\annotation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AD2E247B-69BC-4F0B-8525-A0C9CE76F637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E7DBA1FA-07E5-4709-934A-69B1F8AA9BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{E2118E63-1909-4A35-9A2F-62FE191179EB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="345">
   <si>
     <t>word</t>
   </si>
@@ -1917,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593CAC59-8B80-4BDF-A2E1-0B04AD9D805D}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4593,6 +4593,9 @@
       <c r="C134" t="s">
         <v>275</v>
       </c>
+      <c r="D134" t="s">
+        <v>344</v>
+      </c>
       <c r="E134" t="s">
         <v>7</v>
       </c>
@@ -4610,6 +4613,9 @@
       <c r="C135" t="s">
         <v>276</v>
       </c>
+      <c r="D135" t="s">
+        <v>344</v>
+      </c>
       <c r="E135" t="s">
         <v>277</v>
       </c>
@@ -4627,6 +4633,9 @@
       <c r="C136" t="s">
         <v>278</v>
       </c>
+      <c r="D136" t="s">
+        <v>343</v>
+      </c>
       <c r="E136" t="s">
         <v>233</v>
       </c>
@@ -4644,6 +4653,9 @@
       <c r="C137" t="s">
         <v>280</v>
       </c>
+      <c r="D137" t="s">
+        <v>342</v>
+      </c>
       <c r="E137" t="s">
         <v>70</v>
       </c>
@@ -4661,6 +4673,9 @@
       <c r="C138" t="s">
         <v>282</v>
       </c>
+      <c r="D138" t="s">
+        <v>342</v>
+      </c>
       <c r="E138" t="s">
         <v>27</v>
       </c>
@@ -4678,6 +4693,9 @@
       <c r="C139" t="s">
         <v>283</v>
       </c>
+      <c r="D139" t="s">
+        <v>344</v>
+      </c>
       <c r="E139" t="s">
         <v>61</v>
       </c>
@@ -4695,6 +4713,9 @@
       <c r="C140" t="s">
         <v>284</v>
       </c>
+      <c r="D140" t="s">
+        <v>344</v>
+      </c>
       <c r="E140" t="s">
         <v>277</v>
       </c>
@@ -4712,6 +4733,9 @@
       <c r="C141" t="s">
         <v>285</v>
       </c>
+      <c r="D141" t="s">
+        <v>343</v>
+      </c>
       <c r="E141" t="s">
         <v>122</v>
       </c>
@@ -4729,6 +4753,9 @@
       <c r="C142" t="s">
         <v>109</v>
       </c>
+      <c r="D142" t="s">
+        <v>342</v>
+      </c>
       <c r="E142" t="s">
         <v>210</v>
       </c>
@@ -4746,6 +4773,9 @@
       <c r="C143" t="s">
         <v>286</v>
       </c>
+      <c r="D143" t="s">
+        <v>343</v>
+      </c>
       <c r="E143" t="s">
         <v>61</v>
       </c>
@@ -4763,6 +4793,9 @@
       <c r="C144" t="s">
         <v>288</v>
       </c>
+      <c r="D144" t="s">
+        <v>342</v>
+      </c>
       <c r="E144" t="s">
         <v>56</v>
       </c>
@@ -4780,6 +4813,9 @@
       <c r="C145" t="s">
         <v>258</v>
       </c>
+      <c r="D145" t="s">
+        <v>342</v>
+      </c>
       <c r="E145" t="s">
         <v>56</v>
       </c>
@@ -4797,6 +4833,9 @@
       <c r="C146" t="s">
         <v>290</v>
       </c>
+      <c r="D146" t="s">
+        <v>344</v>
+      </c>
       <c r="E146" t="s">
         <v>291</v>
       </c>
@@ -4814,6 +4853,9 @@
       <c r="C147" t="s">
         <v>189</v>
       </c>
+      <c r="D147" t="s">
+        <v>344</v>
+      </c>
       <c r="E147" t="s">
         <v>190</v>
       </c>
@@ -4831,6 +4873,9 @@
       <c r="C148" t="s">
         <v>292</v>
       </c>
+      <c r="D148" t="s">
+        <v>342</v>
+      </c>
       <c r="E148" t="s">
         <v>42</v>
       </c>
@@ -4848,6 +4893,9 @@
       <c r="C149" t="s">
         <v>293</v>
       </c>
+      <c r="D149" t="s">
+        <v>343</v>
+      </c>
       <c r="E149" t="s">
         <v>43</v>
       </c>
@@ -4865,6 +4913,9 @@
       <c r="C150" t="s">
         <v>295</v>
       </c>
+      <c r="D150" t="s">
+        <v>342</v>
+      </c>
       <c r="E150" t="s">
         <v>118</v>
       </c>
@@ -4882,6 +4933,9 @@
       <c r="C151" t="s">
         <v>296</v>
       </c>
+      <c r="D151" t="s">
+        <v>344</v>
+      </c>
       <c r="E151" t="s">
         <v>145</v>
       </c>
@@ -4899,6 +4953,9 @@
       <c r="C152" t="s">
         <v>190</v>
       </c>
+      <c r="D152" t="s">
+        <v>344</v>
+      </c>
       <c r="E152" t="s">
         <v>190</v>
       </c>
@@ -4916,6 +4973,9 @@
       <c r="C153" t="s">
         <v>298</v>
       </c>
+      <c r="D153" t="s">
+        <v>344</v>
+      </c>
       <c r="E153" t="s">
         <v>299</v>
       </c>
@@ -4933,6 +4993,9 @@
       <c r="C154" t="s">
         <v>189</v>
       </c>
+      <c r="D154" t="s">
+        <v>344</v>
+      </c>
       <c r="E154" t="s">
         <v>190</v>
       </c>
@@ -4950,6 +5013,9 @@
       <c r="C155" t="s">
         <v>300</v>
       </c>
+      <c r="D155" t="s">
+        <v>342</v>
+      </c>
       <c r="E155" t="s">
         <v>279</v>
       </c>
@@ -4967,6 +5033,9 @@
       <c r="C156" t="s">
         <v>301</v>
       </c>
+      <c r="D156" t="s">
+        <v>342</v>
+      </c>
       <c r="E156" t="s">
         <v>74</v>
       </c>
@@ -4984,6 +5053,9 @@
       <c r="C157" t="s">
         <v>302</v>
       </c>
+      <c r="D157" t="s">
+        <v>343</v>
+      </c>
       <c r="E157" t="s">
         <v>303</v>
       </c>
@@ -5001,6 +5073,9 @@
       <c r="C158" t="s">
         <v>304</v>
       </c>
+      <c r="D158" t="s">
+        <v>342</v>
+      </c>
       <c r="E158" t="s">
         <v>305</v>
       </c>
@@ -5018,6 +5093,9 @@
       <c r="C159" t="s">
         <v>306</v>
       </c>
+      <c r="D159" t="s">
+        <v>343</v>
+      </c>
       <c r="E159" t="s">
         <v>307</v>
       </c>
@@ -5035,6 +5113,9 @@
       <c r="C160" t="s">
         <v>308</v>
       </c>
+      <c r="D160" t="s">
+        <v>344</v>
+      </c>
       <c r="E160" t="s">
         <v>309</v>
       </c>
@@ -5052,6 +5133,9 @@
       <c r="C161" t="s">
         <v>310</v>
       </c>
+      <c r="D161" t="s">
+        <v>344</v>
+      </c>
       <c r="E161" t="s">
         <v>291</v>
       </c>
@@ -5069,6 +5153,9 @@
       <c r="C162" t="s">
         <v>51</v>
       </c>
+      <c r="D162" t="s">
+        <v>342</v>
+      </c>
       <c r="E162" t="s">
         <v>53</v>
       </c>
@@ -5086,6 +5173,9 @@
       <c r="C163" t="s">
         <v>311</v>
       </c>
+      <c r="D163" t="s">
+        <v>344</v>
+      </c>
       <c r="E163" t="s">
         <v>312</v>
       </c>
@@ -5103,6 +5193,9 @@
       <c r="C164" t="s">
         <v>313</v>
       </c>
+      <c r="D164" t="s">
+        <v>342</v>
+      </c>
       <c r="E164" t="s">
         <v>161</v>
       </c>
@@ -5120,6 +5213,9 @@
       <c r="C165" t="s">
         <v>314</v>
       </c>
+      <c r="D165" t="s">
+        <v>342</v>
+      </c>
       <c r="E165" t="s">
         <v>56</v>
       </c>
@@ -5137,6 +5233,9 @@
       <c r="C166" t="s">
         <v>315</v>
       </c>
+      <c r="D166" t="s">
+        <v>342</v>
+      </c>
       <c r="E166" t="s">
         <v>42</v>
       </c>
@@ -5154,6 +5253,9 @@
       <c r="C167" t="s">
         <v>316</v>
       </c>
+      <c r="D167" t="s">
+        <v>342</v>
+      </c>
       <c r="E167" t="s">
         <v>317</v>
       </c>
@@ -5171,6 +5273,9 @@
       <c r="C168" t="s">
         <v>320</v>
       </c>
+      <c r="D168" t="s">
+        <v>342</v>
+      </c>
       <c r="E168" t="s">
         <v>321</v>
       </c>
@@ -5188,6 +5293,9 @@
       <c r="C169" t="s">
         <v>323</v>
       </c>
+      <c r="D169" t="s">
+        <v>342</v>
+      </c>
       <c r="E169" t="s">
         <v>133</v>
       </c>
@@ -5205,6 +5313,9 @@
       <c r="C170" t="s">
         <v>324</v>
       </c>
+      <c r="D170" t="s">
+        <v>343</v>
+      </c>
       <c r="E170" t="s">
         <v>267</v>
       </c>
@@ -5222,6 +5333,9 @@
       <c r="C171" t="s">
         <v>325</v>
       </c>
+      <c r="D171" t="s">
+        <v>343</v>
+      </c>
       <c r="E171" t="s">
         <v>49</v>
       </c>
@@ -5239,6 +5353,9 @@
       <c r="C172" t="s">
         <v>326</v>
       </c>
+      <c r="D172" t="s">
+        <v>343</v>
+      </c>
       <c r="E172" t="s">
         <v>233</v>
       </c>
@@ -5256,6 +5373,9 @@
       <c r="C173" t="s">
         <v>327</v>
       </c>
+      <c r="D173" t="s">
+        <v>343</v>
+      </c>
       <c r="E173" t="s">
         <v>31</v>
       </c>
@@ -5273,6 +5393,9 @@
       <c r="C174" t="s">
         <v>328</v>
       </c>
+      <c r="D174" t="s">
+        <v>342</v>
+      </c>
       <c r="E174" t="s">
         <v>19</v>
       </c>
@@ -5290,6 +5413,9 @@
       <c r="C175" t="s">
         <v>29</v>
       </c>
+      <c r="D175" t="s">
+        <v>344</v>
+      </c>
       <c r="E175" t="s">
         <v>31</v>
       </c>
@@ -5307,6 +5433,9 @@
       <c r="C176" t="s">
         <v>330</v>
       </c>
+      <c r="D176" t="s">
+        <v>342</v>
+      </c>
       <c r="E176" t="s">
         <v>246</v>
       </c>
@@ -5324,6 +5453,9 @@
       <c r="C177" t="s">
         <v>331</v>
       </c>
+      <c r="D177" t="s">
+        <v>344</v>
+      </c>
       <c r="E177" t="s">
         <v>35</v>
       </c>
@@ -5341,6 +5473,9 @@
       <c r="C178" t="s">
         <v>332</v>
       </c>
+      <c r="D178" t="s">
+        <v>342</v>
+      </c>
       <c r="E178" t="s">
         <v>232</v>
       </c>
@@ -5358,6 +5493,9 @@
       <c r="C179" t="s">
         <v>208</v>
       </c>
+      <c r="D179" t="s">
+        <v>342</v>
+      </c>
       <c r="E179" t="s">
         <v>210</v>
       </c>
@@ -5375,6 +5513,9 @@
       <c r="C180" t="s">
         <v>333</v>
       </c>
+      <c r="D180" t="s">
+        <v>343</v>
+      </c>
       <c r="E180" t="s">
         <v>162</v>
       </c>
@@ -5392,6 +5533,9 @@
       <c r="C181" t="s">
         <v>334</v>
       </c>
+      <c r="D181" t="s">
+        <v>342</v>
+      </c>
       <c r="E181" t="s">
         <v>294</v>
       </c>
@@ -5409,6 +5553,9 @@
       <c r="C182" t="s">
         <v>335</v>
       </c>
+      <c r="D182" t="s">
+        <v>342</v>
+      </c>
       <c r="E182" t="s">
         <v>263</v>
       </c>
@@ -5426,6 +5573,9 @@
       <c r="C183" t="s">
         <v>337</v>
       </c>
+      <c r="D183" t="s">
+        <v>342</v>
+      </c>
       <c r="E183" t="s">
         <v>338</v>
       </c>
@@ -5443,6 +5593,9 @@
       <c r="C184" t="s">
         <v>340</v>
       </c>
+      <c r="D184" t="s">
+        <v>344</v>
+      </c>
       <c r="E184" t="s">
         <v>251</v>
       </c>
@@ -5459,6 +5612,9 @@
       </c>
       <c r="C185" t="s">
         <v>341</v>
+      </c>
+      <c r="D185" t="s">
+        <v>343</v>
       </c>
       <c r="E185" t="s">
         <v>161</v>
